--- a/src/main/resources/data/batchDeleteNodesAndLinks.xlsx
+++ b/src/main/resources/data/batchDeleteNodesAndLinks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>title</t>
   </si>
@@ -67,9 +67,18 @@
     <t>图分析视图-batchDeleteNodesAndLinks-缺少入参graphId</t>
   </si>
   <si>
+    <t>{"projectId":1426,"links":[],"nodes":[]}</t>
+  </si>
+  <si>
+    <t>图分析视图-batchDeleteNodesAndLinks-项目不存在</t>
+  </si>
+  <si>
     <t>{"projectId":1466,"links":[],"nodes":[]}</t>
   </si>
   <si>
+    <t>项目不存在</t>
+  </si>
+  <si>
     <t>图分析视图-batchDeleteNodesAndLinks-projectid为空</t>
   </si>
   <si>
@@ -79,7 +88,7 @@
     <t>图分析视图-batchDeleteNodesAndLinks-graphId为空</t>
   </si>
   <si>
-    <t>{"projectId":1466,"graphId":null,"links":[],"nodes":[]}</t>
+    <t>{"projectId":1426,"graphId":null,"links":[],"nodes":[]}</t>
   </si>
   <si>
     <t>图分析视图-batchDeleteNodesAndLinks-跨账号不能操作</t>
@@ -88,7 +97,7 @@
     <t>{"projectId":1334,"graphId":2497,"links":[],"nodes":[]}</t>
   </si>
   <si>
-    <t>无权访问</t>
+    <t>无权</t>
   </si>
   <si>
     <t>图分析视图-batchDeleteNodesAndLinks-同账号非当前项目标签不能操作</t>
@@ -97,13 +106,16 @@
     <t>{"projectId":1426,"graphId":2893,"links":[],"nodes":[]}</t>
   </si>
   <si>
+    <t>不属于此项目</t>
+  </si>
+  <si>
+    <t>图分析视图-batchDeleteNodesAndLinks-项目下不存在的标签不能查询视图数据</t>
+  </si>
+  <si>
+    <t>{"projectId":1426,"graphId":2772,"links":[],"nodes":[]}</t>
+  </si>
+  <si>
     <t>无权操作</t>
-  </si>
-  <si>
-    <t>图分析视图-batchDeleteNodesAndLinks-项目下不存在的标签不能查询视图数据</t>
-  </si>
-  <si>
-    <t>{"projectId":1426,"graphId":2772,"links":[],"nodes":[]}</t>
   </si>
 </sst>
 </file>
@@ -113,8 +125,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -160,6 +172,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -167,14 +194,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,7 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,15 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -224,6 +245,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -239,9 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,58 +313,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -329,187 +341,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,6 +610,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -613,26 +667,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,46 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,148 +712,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2059,19 +2071,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="42.8303571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.6339285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.6160714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.2232142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.9285714285714" style="1" customWidth="1"/>
@@ -2187,7 +2199,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -2195,10 +2207,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="11">
-        <v>201</v>
+        <v>31003</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7" s="14">
         <v>1</v>
@@ -2206,11 +2218,11 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
+      <c r="A8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="11">
         <v>201</v>
@@ -2224,17 +2236,17 @@
       <c r="F8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="11">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E9" s="14">
         <v>1</v>
@@ -2259,7 +2271,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
+    <row r="11" ht="20.05" customHeight="1" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -2267,22 +2279,32 @@
         <v>29</v>
       </c>
       <c r="C11" s="11">
-        <v>90009</v>
+        <v>90017</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+    <row r="12" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11">
+        <v>90009</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:6">
@@ -2365,6 +2387,14 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
+    <row r="23" ht="20.05" customHeight="1" spans="1:6">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
